--- a/쇼핑몰 기획설계_이준형.xlsx
+++ b/쇼핑몰 기획설계_이준형.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\june\프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\june\프로젝트\gitProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="430">
   <si>
     <t>IMAGE_ID</t>
   </si>
@@ -455,10 +455,6 @@
     <t>상품 정보 등록</t>
   </si>
   <si>
-    <t>상품 이미지 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상품 정보 조회</t>
   </si>
   <si>
@@ -880,10 +876,6 @@
     <t>main</t>
   </si>
   <si>
-    <t>HttpServletRequest request, HttpServletResponse response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ModelAndView</t>
   </si>
   <si>
@@ -1040,7 +1032,654 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/,/main/main.do</t>
+    <t>/member/login.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelAndView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam Map loginMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberService.login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberDAO.login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapper.member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/logout.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelAndView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapper.member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/addMember.do
+/member/overlapped.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addMember
+overlapped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@ModelAttribute("memberVO") MemberVO memberVO
+@RequestParam("id") String id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResponseEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberService.addMember
+memberService.overlapped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberDAO.insertNewMember
+memberDAO.selectOverlappedID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insertNewMember
+selectOverlappedID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뷰네임인터셉터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일다운로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/goods/goodsDetail.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/goods/searchGoods.do
+/goods/keywordSearch.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam("goods_id") String goods_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsService.goodsDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelAndView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keywordSearch
+searchGoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam("keyword") String keyword
+@RequestParam("searchWord") String searchWord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@ResponseBody String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@ResponseBody String
+ModelAndView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsService.keywordSearch
+goodsService.searchGoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsDAO.selectGoodsDetail
+goodsDAO.selectGoodsDetailImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsDAO.selectKeywordSearch
+goodsDAO.selectGoodsBySearchWord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectGoodsDetail
+selectGoodsDetailImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapper.goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectKeywordSearch
+selectGoodsBySearchWord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cart/myCartList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cart/addGoodsInCart.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cart/modifyCartQty.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cart/removeCartGoods.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removeCartGoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyCartQty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addGoodsInCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myCartMain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam("goods_id") int goods_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam("goods_id") int goods_id
+@RequestParam("cart_goods_qty") int cart_goods_qty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam("cart_id") int cart_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartService.removeCartGoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartService.modifyCartQty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartService.myCartList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelAndView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartDAO.selectCartList
+cartDAO.selectGoodsList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartDAO.updateCartGoodsQty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartDAO.deleteCartGoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartService.findCartGoods
+cartService.addGoodsInCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartDAO.selectCountInCart
+cartDAO.insertGoodsInCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapper.cart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapper.cart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapper.cart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapper.cart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectCartList
+selectGoodsList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectCountInCart
+insertGoodsInCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateCartGoodsQty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteCartGoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage/myPageMain.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage/myOrderDetail.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 내역 취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage/listMyOrderHistory.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage/cancelMyOrder.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage/myDetailInfo.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage/modifyMyInfo.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myPageService.listMyOrderGoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myPageMain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myOrderDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listMyOrderHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancelMyOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myDetailInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyMyInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam("message")  String message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam("order_id")  String order_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam Map dateMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myPageService.findMyOrderInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myPageService.listMyOrderHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myPageService.cancelOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myPageService.modifyMyInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myPageDAO.selectMyOrderGoodsList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myPageDAO.selectMyOrderInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myPageDAO.selectMyOrderHistoryList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myPageDAO.updateMyInfo
+myPageDAO.selectMyDetailInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myPageDAO.updateMyOrderCancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapper.mypage</t>
+  </si>
+  <si>
+    <t>selectMyOrderGoodsList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectMyOrderInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectMyOrderHistoryList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateMyInfo
+selectMyDetailInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateMyOrderCancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/goods/adminGoodsMain.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/
+/main/main.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/goods/addNewGoods.do
+/admin/goods/addNewGoodsImage.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminGoodsMain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam Map dateMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelAndView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResponseEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addNewGoods
+addNewGoodsImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminGoodsService.addNewGoods
+adminGoodsService.addNewGoodsImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/goods/modifyGoodsForm.do
+/admin/goods/modifyGoodsInfo.do
+/admin/goods/removeGoodsImage.do
+/admin/goods/modifyGoodsImageInfo.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminGoodsService.listNewGoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelAndView
+ResponseEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam("attribute")  String attribute
+@RequestParam("value")  String value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelAndView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelAndView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelAndView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelAndView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelAndView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResponseEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyGoodsForm
+modifyGoodsInfo
+modifyGoodsImageInfo
+removeGoodsImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam("goods_id") int goods_id
+@RequestParam("goods_id") String goods_id,
+@RequestParam("attribute") String attribute,
+@RequestParam("value") String value
+@RequestParam("goods_id") int goods_id
+@RequestParam("image_id") int image_id
+@RequestParam("imageFileName") String imageFileName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminGoodsService.goodsDetail
+adminGoodsService.modifyGoodsInfo
+adminGoodsService.modifyGoodsImage
+adminGoodsService.removeGoodsImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminGoodsDAO.insertNewGoods
+adminGoodsDAO.insertGoodsImageFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminGoodsDAO.selectNewGoodsList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminGoodsDAO.selectGoodsDetail
+adminGoodsDAO.selectGoodsImageFileList
+adminGoodsDAO.updateGoodsInfo
+adminGoodsDAO.updateGoodsImage
+adminGoodsDAO.deleteGoodsImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapper.admin.goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insertNewGoods
+insertGoodsImageFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectNewGoodsList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectGoodsDetail
+selectGoodsImageFileList
+updateGoodsInfo
+updateGoodsImage
+deleteGoodsImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/member/adminMemberMain.do
+/admin/member/memberDetail.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/member/modifyMemberInfo.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/member/deleteMember.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam Map dateMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminGoodsMain
+memberDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyMemberInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteMember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminMemberService.modifyMemberInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminMemberService.modifyMemberInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminMemberService.listMember
+adminMemberService.memberDetail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1186,7 +1825,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1301,21 +1940,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1493,7 +2117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1509,199 +2133,214 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2093,168 +2732,168 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="B7" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="24" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C8" s="22" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="24">
+      <c r="C9" s="22">
         <v>12341234</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="33">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="35">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="33">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
         <v>262</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="35">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="33">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
         <v>264</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="35">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="C18" t="s">
         <v>268</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="C19" t="s">
         <v>271</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="33">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
         <v>272</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="35">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="B21" t="s">
         <v>274</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="B22" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C22" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="B22" t="s">
-        <v>277</v>
-      </c>
-      <c r="C22" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -2262,10 +2901,10 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C23" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -2286,385 +2925,385 @@
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="24"/>
+    <col min="4" max="4" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="43"/>
+      <c r="B3" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="42"/>
+      <c r="B4" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="30" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="43"/>
+      <c r="B6" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="42"/>
+      <c r="B7" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="28"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="C6" s="29"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="C7" s="30"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+      <c r="B8" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="43"/>
+      <c r="B9" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="29" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="43"/>
+      <c r="B10" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="29" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="43"/>
+      <c r="B11" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="29" t="s">
+      <c r="C11" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="D11" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="43"/>
+      <c r="B12" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="33" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="43"/>
+      <c r="B13" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="33" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="43"/>
+      <c r="B14" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="33" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="42"/>
+      <c r="B15" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
-      <c r="B15" s="34" t="s">
+      <c r="C15" s="28"/>
+      <c r="D15" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+      <c r="B16" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="C16" s="29">
+        <v>1</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="31">
-        <v>1</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="B17" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="C17" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="43"/>
+      <c r="B18" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="28">
-        <v>2.5</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="29" t="s">
+      <c r="C18" s="27">
+        <v>2.1</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="42"/>
+      <c r="B19" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="C18" s="29">
-        <v>2.1</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
-      <c r="B19" s="30" t="s">
+      <c r="C19" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="C19" s="30">
-        <v>1.2</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
+      <c r="B20" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="C20" s="29">
+        <v>4.7</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="31">
-        <v>4.7</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="38" t="s">
+      <c r="B21" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="C21" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="C21" s="28" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="42"/>
+      <c r="B22" s="28" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="30" t="s">
+      <c r="C22" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="30" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
+      <c r="B23" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="C23" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="28" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="43"/>
+      <c r="B24" s="27" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="29" t="s">
+      <c r="C24" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="C24" s="29" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="43"/>
+      <c r="B25" s="27" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="29" t="s">
+      <c r="C25" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="C25" s="29" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="43"/>
+      <c r="B26" s="27" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="29" t="s">
+      <c r="C26" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="C26" s="29" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="42"/>
+      <c r="B27" s="28" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="39"/>
-      <c r="B27" s="30" t="s">
+      <c r="C27" s="28">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="C27" s="30">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="38" t="s">
+      <c r="B28" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="C28" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="C28" s="28" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="43"/>
+      <c r="B29" s="27" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="29" t="s">
+      <c r="C29" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="42"/>
+      <c r="B30" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C30" s="28" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="39"/>
-      <c r="B30" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="C30" s="30" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="41" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="s">
+      <c r="B31" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="C31" s="26">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="42"/>
+      <c r="B32" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C32" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="28">
         <v>2.4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="39"/>
-      <c r="B32" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="B35" s="30" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="C35" s="30">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="31" t="s">
+      <c r="B36" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="B36" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="C36" s="31"/>
+      <c r="C36" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2685,10 +3324,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD41"/>
+  <dimension ref="A1:AD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView tabSelected="1" topLeftCell="Y13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z27" sqref="Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2697,236 +3336,234 @@
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
     <col min="5" max="20" width="3.5" customWidth="1"/>
-    <col min="21" max="21" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.5" customWidth="1"/>
+    <col min="22" max="22" width="21.375" customWidth="1"/>
+    <col min="23" max="23" width="50.625" customWidth="1"/>
+    <col min="24" max="24" width="21.25" customWidth="1"/>
+    <col min="25" max="25" width="36.125" customWidth="1"/>
+    <col min="26" max="26" width="37.375" customWidth="1"/>
+    <col min="27" max="27" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.25" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11.125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="64" t="s">
-        <v>171</v>
-      </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="58" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z1" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA1" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD1" s="45"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="10">
+        <v>26</v>
+      </c>
+      <c r="F2" s="21">
+        <v>27</v>
+      </c>
+      <c r="G2" s="10">
+        <v>28</v>
+      </c>
+      <c r="H2" s="10">
+        <v>29</v>
+      </c>
+      <c r="I2" s="10">
+        <v>30</v>
+      </c>
+      <c r="J2" s="10">
+        <v>1</v>
+      </c>
+      <c r="K2" s="10">
+        <v>3</v>
+      </c>
+      <c r="L2" s="10">
+        <v>4</v>
+      </c>
+      <c r="M2" s="10">
+        <v>5</v>
+      </c>
+      <c r="N2" s="10">
+        <v>6</v>
+      </c>
+      <c r="O2" s="10">
+        <v>7</v>
+      </c>
+      <c r="P2" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>10</v>
+      </c>
+      <c r="R2" s="10">
+        <v>11</v>
+      </c>
+      <c r="S2" s="10">
+        <v>12</v>
+      </c>
+      <c r="T2" s="10">
+        <v>13</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z1" s="32" t="s">
+      <c r="W2" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y2" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="65" t="s">
         <v>247</v>
       </c>
-      <c r="AA1" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD1" s="57"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="11">
-        <v>26</v>
-      </c>
-      <c r="F2" s="23">
-        <v>27</v>
-      </c>
-      <c r="G2" s="11">
-        <v>28</v>
-      </c>
-      <c r="H2" s="11">
-        <v>29</v>
-      </c>
-      <c r="I2" s="11">
-        <v>30</v>
-      </c>
-      <c r="J2" s="11">
-        <v>1</v>
-      </c>
-      <c r="K2" s="11">
-        <v>3</v>
-      </c>
-      <c r="L2" s="11">
-        <v>4</v>
-      </c>
-      <c r="M2" s="11">
-        <v>5</v>
-      </c>
-      <c r="N2" s="11">
-        <v>6</v>
-      </c>
-      <c r="O2" s="11">
-        <v>7</v>
-      </c>
-      <c r="P2" s="11">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="11">
-        <v>10</v>
-      </c>
-      <c r="R2" s="11">
-        <v>11</v>
-      </c>
-      <c r="S2" s="11">
-        <v>12</v>
-      </c>
-      <c r="T2" s="11">
-        <v>13</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y2" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z2" s="32" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AA2" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB2" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC2" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD2" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="41" t="s">
+      <c r="Z3" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="Z3" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>255</v>
-      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="43" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="15"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="14"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
@@ -2938,70 +3575,92 @@
       <c r="AD4" s="1"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="41" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="W6" s="36"/>
+      <c r="X6" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
@@ -3009,280 +3668,392 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
+    <row r="7" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="59"/>
+      <c r="B7" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="V7" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="W7" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y7" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z7" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB7" s="38" t="s">
+        <v>300</v>
+      </c>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
+    <row r="8" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="V8" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y8" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z8" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB8" s="38" t="s">
+        <v>322</v>
+      </c>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
-      <c r="B9" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
+    <row r="9" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="59"/>
+      <c r="B9" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="V9" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="W9" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="X9" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y9" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z9" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB9" s="38" t="s">
+        <v>324</v>
+      </c>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
-      <c r="B10" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="1"/>
+    <row r="10" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="63"/>
+      <c r="D10" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
+      <c r="X10" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z10" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB10" s="38" t="s">
+        <v>349</v>
+      </c>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
-      <c r="B11" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
+    <row r="11" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="58"/>
+      <c r="B11" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="63"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y11" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z11" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB11" s="38" t="s">
+        <v>350</v>
+      </c>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
+    <row r="12" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="58"/>
+      <c r="B12" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="63"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="W12" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
-      <c r="B13" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="X13" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
-      <c r="B14" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="15"/>
+      <c r="A14" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="63"/>
+      <c r="D14" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="14" t="s">
+        <v>353</v>
+      </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -3294,33 +4065,31 @@
       <c r="AD14" s="1"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="15"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="14" t="s">
+        <v>354</v>
+      </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -3332,29 +4101,31 @@
       <c r="AD15" s="1"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
-      <c r="B16" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="15"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="63"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="14" t="s">
+        <v>353</v>
+      </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
@@ -3366,29 +4137,35 @@
       <c r="AD16" s="1"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
-      <c r="B17" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="15"/>
+      <c r="A17" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="72"/>
+      <c r="D17" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="14" t="s">
+        <v>419</v>
+      </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
@@ -3400,29 +4177,31 @@
       <c r="AD17" s="1"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="15"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="72"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="14" t="s">
+        <v>355</v>
+      </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
@@ -3434,33 +4213,31 @@
       <c r="AD18" s="1"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="15"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="72"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="14" t="s">
+        <v>355</v>
+      </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
@@ -3472,29 +4249,31 @@
       <c r="AD19" s="1"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
-      <c r="B20" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="15"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="72"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="14" t="s">
+        <v>355</v>
+      </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
@@ -3506,174 +4285,242 @@
       <c r="AD20" s="1"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
-      <c r="B21" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
+      <c r="A21" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="72"/>
+      <c r="D21" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="V21" t="s">
+        <v>364</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
-      <c r="B22" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="72"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
-      <c r="B23" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="63"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" s="48"/>
-      <c r="B24" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="62" t="s">
+        <v>358</v>
+      </c>
+      <c r="C24" s="72"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="1"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="63"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
+      <c r="X25" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
@@ -3681,64 +4528,82 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
+    <row r="26" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" s="58"/>
+      <c r="B26" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="63"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="W26" s="39" t="s">
+        <v>402</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z26" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB26" s="38" t="s">
+        <v>386</v>
+      </c>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="15"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="63"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="14" t="s">
+        <v>388</v>
+      </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
@@ -3749,136 +4614,190 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" s="47"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="1"/>
+    <row r="28" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="A28" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="V28" s="38" t="s">
+        <v>397</v>
+      </c>
       <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
+      <c r="X28" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y28" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z28" s="38" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AB28" s="38" t="s">
+        <v>416</v>
+      </c>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A29" s="47"/>
-      <c r="B29" s="46" t="s">
-        <v>131</v>
-      </c>
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="D29" s="70"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
+    <row r="30" spans="1:30" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="58"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="D30" s="71"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="V30" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="W30" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="X30" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y30" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="Z30" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AB30" s="38" t="s">
+        <v>418</v>
+      </c>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" s="47"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="15"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="14" t="s">
+        <v>389</v>
+      </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
@@ -3890,33 +4809,31 @@
       <c r="AD31" s="1"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" s="47"/>
-      <c r="B32" s="46" t="s">
-        <v>135</v>
-      </c>
+      <c r="A32" s="58"/>
+      <c r="B32" s="58"/>
       <c r="C32" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="15"/>
+        <v>132</v>
+      </c>
+      <c r="D32" s="70"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="14" t="s">
+        <v>389</v>
+      </c>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
@@ -3928,29 +4845,31 @@
       <c r="AD32" s="1"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D33" s="52"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="15"/>
+        <v>133</v>
+      </c>
+      <c r="D33" s="71"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="14" t="s">
+        <v>389</v>
+      </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
@@ -3961,34 +4880,48 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
+    <row r="34" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="A34" s="58"/>
+      <c r="B34" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="V34" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="W34" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y34" s="38" t="s">
+        <v>429</v>
+      </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
@@ -3996,59 +4929,210 @@
       <c r="AD34" s="1"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="E35" s="21"/>
-      <c r="F35" t="s">
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="70"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A36" s="68"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="71"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="E37" s="19"/>
+      <c r="F37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="E38" s="20"/>
+      <c r="F38" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="E36" s="22"/>
-      <c r="F36" t="s">
-        <v>173</v>
-      </c>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
+      <c r="A39" t="s">
+        <v>302</v>
+      </c>
+      <c r="B39" t="s">
+        <v>303</v>
+      </c>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="26"/>
+      <c r="B40" t="s">
+        <v>304</v>
+      </c>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
+      <c r="B41" t="s">
+        <v>305</v>
+      </c>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>306</v>
+      </c>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>307</v>
+      </c>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>308</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="54">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A28:A36"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="U1:X1"/>
     <mergeCell ref="AA1:AB1"/>
@@ -4057,47 +5141,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="J1:T1"/>
     <mergeCell ref="E1:I1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4581,12 +5624,12 @@
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>

--- a/쇼핑몰 기획설계_이준형.xlsx
+++ b/쇼핑몰 기획설계_이준형.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BaseSetting" sheetId="5" r:id="rId1"/>
-    <sheet name="DI" sheetId="6" r:id="rId2"/>
+    <sheet name="Lib" sheetId="6" r:id="rId2"/>
     <sheet name="Function" sheetId="3" r:id="rId3"/>
     <sheet name="View" sheetId="4" r:id="rId4"/>
     <sheet name="Jscript" sheetId="7" r:id="rId5"/>
@@ -2750,13 +2750,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2764,87 +2845,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3423,8 +3423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3855,62 +3855,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="68" t="s">
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="62" t="s">
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="64"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="72"/>
       <c r="Y1" s="29" t="s">
         <v>241</v>
       </c>
       <c r="Z1" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="AA1" s="65" t="s">
+      <c r="AA1" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="60" t="s">
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="AD1" s="61"/>
+      <c r="AD1" s="69"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="10">
         <v>26</v>
       </c>
@@ -3994,10 +3994,10 @@
       <c r="A3" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="56"/>
+      <c r="C3" s="83"/>
       <c r="D3" s="40" t="s">
         <v>521</v>
       </c>
@@ -4047,14 +4047,14 @@
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="74" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="61" t="s">
         <v>100</v>
       </c>
       <c r="E4" s="9"/>
@@ -4101,12 +4101,12 @@
       <c r="AD4" s="1"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="52" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="75"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="9"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -4141,12 +4141,12 @@
       <c r="AD5" s="1"/>
     </row>
     <row r="6" spans="1:30" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="52" t="s">
+      <c r="A6" s="54"/>
+      <c r="B6" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="76"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="9"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -4191,14 +4191,14 @@
       <c r="AD6" s="1"/>
     </row>
     <row r="7" spans="1:30" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="55" t="s">
         <v>532</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="81" t="s">
+      <c r="C7" s="56"/>
+      <c r="D7" s="59" t="s">
         <v>103</v>
       </c>
       <c r="E7" s="9"/>
@@ -4245,12 +4245,12 @@
       <c r="AD7" s="1"/>
     </row>
     <row r="8" spans="1:30" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="52" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="55" t="s">
         <v>533</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="82"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="9"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -4295,14 +4295,14 @@
       <c r="AD8" s="1"/>
     </row>
     <row r="9" spans="1:30" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="74" t="s">
+      <c r="C9" s="57"/>
+      <c r="D9" s="61" t="s">
         <v>106</v>
       </c>
       <c r="E9" s="9"/>
@@ -4347,12 +4347,12 @@
       <c r="AD9" s="1"/>
     </row>
     <row r="10" spans="1:30" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="52" t="s">
+      <c r="A10" s="53"/>
+      <c r="B10" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="75"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="9"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -4397,12 +4397,12 @@
       <c r="AD10" s="1"/>
     </row>
     <row r="11" spans="1:30" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
-      <c r="B11" s="52" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="75"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="62"/>
       <c r="E11" s="9"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -4447,12 +4447,12 @@
       <c r="AD11" s="1"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A12" s="59"/>
-      <c r="B12" s="52" t="s">
+      <c r="A12" s="54"/>
+      <c r="B12" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="76"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="9"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -4497,14 +4497,14 @@
       <c r="AD12" s="1"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="74" t="s">
+      <c r="C13" s="57"/>
+      <c r="D13" s="61" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="9"/>
@@ -4537,12 +4537,12 @@
       <c r="AD13" s="1"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="52" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="75"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="9"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -4573,12 +4573,12 @@
       <c r="AD14" s="1"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
-      <c r="B15" s="52" t="s">
+      <c r="A15" s="54"/>
+      <c r="B15" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="76"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="9"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
@@ -4609,14 +4609,14 @@
       <c r="AD15" s="1"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="74" t="s">
+      <c r="C16" s="56"/>
+      <c r="D16" s="61" t="s">
         <v>141</v>
       </c>
       <c r="E16" s="9"/>
@@ -4661,12 +4661,12 @@
       <c r="AD16" s="1"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="52" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="75"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="62"/>
       <c r="E17" s="9"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -4711,12 +4711,12 @@
       <c r="AD17" s="1"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="52" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="75"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="9"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
@@ -4761,12 +4761,12 @@
       <c r="AD18" s="1"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="52" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="76"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="9"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
@@ -4811,14 +4811,14 @@
       <c r="AD19" s="1"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="74" t="s">
+      <c r="C20" s="56"/>
+      <c r="D20" s="61" t="s">
         <v>117</v>
       </c>
       <c r="E20" s="9"/>
@@ -4865,12 +4865,12 @@
       <c r="AD20" s="1"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="52" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="75"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="9"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
@@ -4915,12 +4915,12 @@
       <c r="AD21" s="1"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="52" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="75"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="9"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
@@ -4965,12 +4965,12 @@
       <c r="AD22" s="1"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
-      <c r="B23" s="52" t="s">
+      <c r="A23" s="53"/>
+      <c r="B23" s="55" t="s">
         <v>351</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="75"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="62"/>
       <c r="E23" s="9"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -5015,12 +5015,12 @@
       <c r="AD23" s="1"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
-      <c r="B24" s="52" t="s">
+      <c r="A24" s="53"/>
+      <c r="B24" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="75"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="62"/>
       <c r="E24" s="9"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -5057,12 +5057,12 @@
       <c r="AD24" s="1"/>
     </row>
     <row r="25" spans="1:30" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="52" t="s">
+      <c r="A25" s="53"/>
+      <c r="B25" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="75"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="62"/>
       <c r="E25" s="9"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -5107,12 +5107,12 @@
       <c r="AD25" s="1"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26" s="59"/>
-      <c r="B26" s="52" t="s">
+      <c r="A26" s="54"/>
+      <c r="B26" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="76"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="9"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
@@ -5147,16 +5147,16 @@
       <c r="AD26" s="1"/>
     </row>
     <row r="27" spans="1:30" ht="33" x14ac:dyDescent="0.3">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="52" t="s">
         <v>124</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="78" t="s">
+      <c r="D27" s="65" t="s">
         <v>137</v>
       </c>
       <c r="E27" s="9"/>
@@ -5201,12 +5201,12 @@
       <c r="AD27" s="1"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
-      <c r="B28" s="58"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="79"/>
+      <c r="D28" s="66"/>
       <c r="E28" s="9"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
@@ -5251,12 +5251,12 @@
       <c r="AD28" s="1"/>
     </row>
     <row r="29" spans="1:30" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="80"/>
+      <c r="D29" s="67"/>
       <c r="E29" s="9"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -5301,14 +5301,14 @@
       <c r="AD29" s="1"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" s="58"/>
-      <c r="B30" s="57" t="s">
+      <c r="A30" s="53"/>
+      <c r="B30" s="52" t="s">
         <v>128</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="78" t="s">
+      <c r="D30" s="65" t="s">
         <v>138</v>
       </c>
       <c r="E30" s="9"/>
@@ -5345,12 +5345,12 @@
       <c r="AD30" s="1"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" s="58"/>
-      <c r="B31" s="58"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="79"/>
+      <c r="D31" s="66"/>
       <c r="E31" s="9"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -5385,12 +5385,12 @@
       <c r="AD31" s="1"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" s="58"/>
-      <c r="B32" s="59"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="80"/>
+      <c r="D32" s="67"/>
       <c r="E32" s="9"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
@@ -5425,14 +5425,14 @@
       <c r="AD32" s="1"/>
     </row>
     <row r="33" spans="1:30" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="58"/>
-      <c r="B33" s="57" t="s">
+      <c r="A33" s="53"/>
+      <c r="B33" s="52" t="s">
         <v>132</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D33" s="78" t="s">
+      <c r="D33" s="65" t="s">
         <v>139</v>
       </c>
       <c r="E33" s="9"/>
@@ -5479,12 +5479,12 @@
       <c r="AD33" s="1"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A34" s="58"/>
-      <c r="B34" s="58"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D34" s="79"/>
+      <c r="D34" s="66"/>
       <c r="E34" s="9"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -5525,12 +5525,12 @@
       <c r="AD34" s="1"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="80"/>
+      <c r="D35" s="67"/>
       <c r="E35" s="9"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -5573,14 +5573,14 @@
       <c r="AD35" s="1"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A36" s="83" t="s">
+      <c r="A36" s="58" t="s">
         <v>298</v>
       </c>
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="58" t="s">
         <v>299</v>
       </c>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83" t="s">
+      <c r="C36" s="58"/>
+      <c r="D36" s="58" t="s">
         <v>471</v>
       </c>
       <c r="E36" s="19"/>
@@ -5613,12 +5613,12 @@
       <c r="AD36" s="1"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A37" s="83"/>
-      <c r="B37" s="83" t="s">
+      <c r="A37" s="58"/>
+      <c r="B37" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
       <c r="E37" s="42"/>
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
@@ -5647,14 +5647,14 @@
       <c r="AD37" s="1"/>
     </row>
     <row r="38" spans="1:30" ht="33" x14ac:dyDescent="0.3">
-      <c r="A38" s="83"/>
-      <c r="B38" s="83" t="s">
+      <c r="A38" s="58"/>
+      <c r="B38" s="58" t="s">
         <v>459</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D38" s="83"/>
+      <c r="D38" s="58"/>
       <c r="E38" s="19"/>
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
@@ -5689,12 +5689,12 @@
       <c r="AD38" s="1"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A39" s="83"/>
-      <c r="B39" s="83"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D39" s="83"/>
+      <c r="D39" s="58"/>
       <c r="E39" s="19"/>
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
@@ -5727,12 +5727,12 @@
       <c r="AD39" s="1"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A40" s="83"/>
-      <c r="B40" s="83"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D40" s="83"/>
+      <c r="D40" s="58"/>
       <c r="E40" s="19"/>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
@@ -5765,12 +5765,12 @@
       <c r="AD40" s="1"/>
     </row>
     <row r="41" spans="1:30" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="83"/>
-      <c r="B41" s="83"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
       <c r="C41" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D41" s="83"/>
+      <c r="D41" s="58"/>
       <c r="E41" s="19"/>
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
@@ -5823,31 +5823,20 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D20:D26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="J1:T1"/>
+    <mergeCell ref="E1:I1"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A27:A35"/>
@@ -5864,21 +5853,32 @@
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="J1:T1"/>
-    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D20:D26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B38:B41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5959,7 +5959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -6105,10 +6105,10 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="58" t="s">
         <v>503</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="58" t="s">
         <v>504</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -6124,28 +6124,28 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="83"/>
-      <c r="B10" s="83"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="1" t="s">
         <v>506</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="E10" s="83"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="83"/>
-      <c r="B11" s="83"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="1" t="s">
         <v>507</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="E11" s="83"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
